--- a/MIP/Results_MIP.xlsx
+++ b/MIP/Results_MIP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveunibo-my.sharepoint.com/personal/michele_carusone_studio_unibo_it/Documents/Unibo/Combinatorial Decision Making and Optimization/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="11_E9C42EF6C98A7BB6C1FFAD0BF154A74CBE2E22CB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{465DA8D4-B308-4753-AEEE-BD847E66864C}"/>
+  <xr:revisionPtr revIDLastSave="388" documentId="11_E9C42EF6C98A7BB6C1FFAD0BF154A74CBE2E22CB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B135DBF-A5A1-498F-A4D7-C3981A037882}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="131">
   <si>
     <t>inst01</t>
   </si>
@@ -152,6 +152,267 @@
   </si>
   <si>
     <t>NO SOL</t>
+  </si>
+  <si>
+    <t>Gurobi</t>
+  </si>
+  <si>
+    <t>timelim</t>
+  </si>
+  <si>
+    <t>32.3 s</t>
+  </si>
+  <si>
+    <t>192.93 s</t>
+  </si>
+  <si>
+    <t>instance number</t>
+  </si>
+  <si>
+    <t>0.32 s</t>
+  </si>
+  <si>
+    <t>0.1 s</t>
+  </si>
+  <si>
+    <t>0.11 s</t>
+  </si>
+  <si>
+    <t>0.001 s</t>
+  </si>
+  <si>
+    <t>0.003 s</t>
+  </si>
+  <si>
+    <t>0.03 s</t>
+  </si>
+  <si>
+    <t>0.59 s</t>
+  </si>
+  <si>
+    <t>0.05 s</t>
+  </si>
+  <si>
+    <t>0.09 s</t>
+  </si>
+  <si>
+    <t>XPRESS</t>
+  </si>
+  <si>
+    <t>0.41 s</t>
+  </si>
+  <si>
+    <t>0.16 s</t>
+  </si>
+  <si>
+    <t>0.12 s</t>
+  </si>
+  <si>
+    <t>0.015 s</t>
+  </si>
+  <si>
+    <t>0.07 s</t>
+  </si>
+  <si>
+    <t>1.88 s</t>
+  </si>
+  <si>
+    <t>0.13 s</t>
+  </si>
+  <si>
+    <t>0.15 s</t>
+  </si>
+  <si>
+    <t>304 s</t>
+  </si>
+  <si>
+    <t>301 s</t>
+  </si>
+  <si>
+    <t>300 s</t>
+  </si>
+  <si>
+    <t>302 s</t>
+  </si>
+  <si>
+    <t>303 s</t>
+  </si>
+  <si>
+    <t>223.52 s</t>
+  </si>
+  <si>
+    <t>311 s</t>
+  </si>
+  <si>
+    <t>CPLEX</t>
+  </si>
+  <si>
+    <t>0.69 s</t>
+  </si>
+  <si>
+    <t>0.73 s</t>
+  </si>
+  <si>
+    <t>0.71 s</t>
+  </si>
+  <si>
+    <t>0.01 s</t>
+  </si>
+  <si>
+    <t>0.06 s</t>
+  </si>
+  <si>
+    <t>0.76 s</t>
+  </si>
+  <si>
+    <t>0.29 s</t>
+  </si>
+  <si>
+    <t>0.14 s</t>
+  </si>
+  <si>
+    <t>ERR OutOfMemory</t>
+  </si>
+  <si>
+    <t>COPT</t>
+  </si>
+  <si>
+    <t>Mosek</t>
+  </si>
+  <si>
+    <t>320 s</t>
+  </si>
+  <si>
+    <t>310 s</t>
+  </si>
+  <si>
+    <t>312 s</t>
+  </si>
+  <si>
+    <t>735 (FAIL NUMERIC ISSUE)</t>
+  </si>
+  <si>
+    <t>322 s</t>
+  </si>
+  <si>
+    <t>396 s</t>
+  </si>
+  <si>
+    <t>316.6 s</t>
+  </si>
+  <si>
+    <t>408 s</t>
+  </si>
+  <si>
+    <t>313 s</t>
+  </si>
+  <si>
+    <t>NO SOL*</t>
+  </si>
+  <si>
+    <t>*0 simplex iterations; 1 branching node</t>
+  </si>
+  <si>
+    <t>51.49 s</t>
+  </si>
+  <si>
+    <t>0.008 s</t>
+  </si>
+  <si>
+    <t>315 s</t>
+  </si>
+  <si>
+    <t>307 s</t>
+  </si>
+  <si>
+    <t>317 s</t>
+  </si>
+  <si>
+    <t>319 s</t>
+  </si>
+  <si>
+    <t>24 s</t>
+  </si>
+  <si>
+    <t>176 s</t>
+  </si>
+  <si>
+    <t>539   300 s</t>
+  </si>
+  <si>
+    <t>286   42 s</t>
+  </si>
+  <si>
+    <t>552   300 s</t>
+  </si>
+  <si>
+    <t>NO SOL 349 s</t>
+  </si>
+  <si>
+    <t>out of memory</t>
+  </si>
+  <si>
+    <t>Gurobi (alt subtour)</t>
+  </si>
+  <si>
+    <t>14 s</t>
+  </si>
+  <si>
+    <t>Gurobi (alt subtour, same order)</t>
+  </si>
+  <si>
+    <t>8 s</t>
+  </si>
+  <si>
+    <t>CBC + first item SB</t>
+  </si>
+  <si>
+    <t>298 s</t>
+  </si>
+  <si>
+    <t>Gurobi + SB(dist+1 item)</t>
+  </si>
+  <si>
+    <t>Gurobi + SB(dist+HC1)</t>
+  </si>
+  <si>
+    <t>CBC + SB (1 item + HC1 + dist)</t>
+  </si>
+  <si>
+    <t>Gurobi w impl const</t>
+  </si>
+  <si>
+    <t>Gurobi (array distTraveled)</t>
+  </si>
+  <si>
+    <t>22 s</t>
+  </si>
+  <si>
+    <t>374 s</t>
+  </si>
+  <si>
+    <t>3 s</t>
+  </si>
+  <si>
+    <t>282 s</t>
+  </si>
+  <si>
+    <t>502 s</t>
+  </si>
+  <si>
+    <t>Gurobi w mod3</t>
+  </si>
+  <si>
+    <t>0.006 s</t>
+  </si>
+  <si>
+    <t>0.27 s</t>
+  </si>
+  <si>
+    <t>11 s</t>
+  </si>
+  <si>
+    <t>201 s</t>
   </si>
 </sst>
 </file>
@@ -179,15 +440,39 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -196,21 +481,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -220,16 +536,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -247,6 +617,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -537,271 +911,1657 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="C1:G23"/>
+  <dimension ref="C1:AH25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AG14" sqref="AG14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7265625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="12" style="8" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="17.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="13.54296875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.7265625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="12" style="3" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
+    <col min="13" max="13" width="10.6328125" customWidth="1"/>
+    <col min="14" max="14" width="17.90625" customWidth="1"/>
+    <col min="15" max="15" width="11.1796875" customWidth="1"/>
+    <col min="16" max="17" width="10.6328125" customWidth="1"/>
+    <col min="18" max="18" width="11.36328125" customWidth="1"/>
+    <col min="19" max="19" width="12.7265625" customWidth="1"/>
+    <col min="20" max="20" width="19.08984375" customWidth="1"/>
+    <col min="21" max="21" width="14.1796875" customWidth="1"/>
+    <col min="22" max="22" width="12.36328125" customWidth="1"/>
+    <col min="23" max="23" width="16.08984375" customWidth="1"/>
+    <col min="24" max="24" width="15" customWidth="1"/>
+    <col min="25" max="26" width="12.36328125" customWidth="1"/>
+    <col min="29" max="29" width="12.6328125" customWidth="1"/>
+    <col min="30" max="30" width="11.6328125" customWidth="1"/>
+    <col min="33" max="33" width="11.54296875" customWidth="1"/>
+    <col min="34" max="34" width="12" customWidth="1"/>
+    <col min="35" max="35" width="14.54296875" customWidth="1"/>
+    <col min="38" max="38" width="17.90625" customWidth="1"/>
+    <col min="39" max="39" width="22.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="3:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D2" s="3" t="s">
+    <row r="1" spans="3:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="25"/>
+      <c r="H2" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2" s="25"/>
+      <c r="J2" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="16"/>
+      <c r="N2" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="O2" s="18"/>
+      <c r="P2" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="S2" s="16"/>
+      <c r="T2" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="U2" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH2" s="16"/>
     </row>
-    <row r="3" spans="3:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="1" t="s">
+    <row r="3" spans="3:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="8">
         <v>14</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="8">
         <v>14</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="K3" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="L3" s="8">
+        <v>14</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="8">
+        <v>14</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="T3" s="6"/>
+      <c r="U3" s="8">
+        <v>14</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="W3" s="8">
+        <v>14</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>14</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA3" s="8">
+        <v>14</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC3" s="8">
+        <v>14</v>
+      </c>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="8">
+        <v>14</v>
+      </c>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="8">
+        <v>14</v>
+      </c>
+      <c r="AH3" s="6" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="4" spans="3:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="1" t="s">
+    <row r="4" spans="3:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="8">
         <v>226</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="8">
         <v>226</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="K4" s="9" t="s">
         <v>34</v>
       </c>
+      <c r="L4" s="8">
+        <v>226</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="8">
+        <v>226</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="T4" s="6"/>
+      <c r="U4" s="8">
+        <v>226</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="W4" s="8">
+        <v>226</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y4" s="8">
+        <v>226</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA4" s="8">
+        <v>226</v>
+      </c>
+      <c r="AB4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC4" s="8">
+        <v>226</v>
+      </c>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="8">
+        <v>226</v>
+      </c>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="8">
+        <v>226</v>
+      </c>
+      <c r="AH4" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="5" spans="3:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="1" t="s">
+    <row r="5" spans="3:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="8">
         <v>12</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="8">
         <v>12</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="K5" s="9" t="s">
         <v>35</v>
       </c>
+      <c r="L5" s="8">
+        <v>12</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="8">
+        <v>12</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="T5" s="6"/>
+      <c r="U5" s="8">
+        <v>12</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="W5" s="8">
+        <v>12</v>
+      </c>
+      <c r="X5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>12</v>
+      </c>
+      <c r="Z5" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA5" s="8">
+        <v>12</v>
+      </c>
+      <c r="AB5" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC5" s="8">
+        <v>12</v>
+      </c>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="8">
+        <v>12</v>
+      </c>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="8">
+        <v>12</v>
+      </c>
+      <c r="AH5" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="6" spans="3:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="1" t="s">
+    <row r="6" spans="3:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="8">
         <v>220</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="8">
         <v>220</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="K6" s="9" t="s">
         <v>36</v>
       </c>
+      <c r="L6" s="8">
+        <v>220</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="8">
+        <v>220</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="T6" s="6"/>
+      <c r="U6" s="8">
+        <v>220</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="W6" s="8">
+        <v>220</v>
+      </c>
+      <c r="X6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>220</v>
+      </c>
+      <c r="Z6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>220</v>
+      </c>
+      <c r="AB6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC6" s="8">
+        <v>220</v>
+      </c>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="8">
+        <v>220</v>
+      </c>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="8">
+        <v>220</v>
+      </c>
+      <c r="AH6" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="7" spans="3:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="1" t="s">
+    <row r="7" spans="3:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="8">
         <v>206</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="8">
         <v>206</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="K7" s="9" t="s">
         <v>37</v>
       </c>
+      <c r="L7" s="8">
+        <v>206</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="8">
+        <v>206</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="T7" s="6"/>
+      <c r="U7" s="8">
+        <v>206</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="W7" s="8">
+        <v>206</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y7" s="8">
+        <v>206</v>
+      </c>
+      <c r="Z7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA7" s="8">
+        <v>206</v>
+      </c>
+      <c r="AB7" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC7" s="8">
+        <v>206</v>
+      </c>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="8">
+        <v>206</v>
+      </c>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="8">
+        <v>206</v>
+      </c>
+      <c r="AH7" s="6" t="s">
+        <v>127</v>
+      </c>
     </row>
-    <row r="8" spans="3:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="1" t="s">
+    <row r="8" spans="3:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="8">
         <v>322</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="8">
         <v>322</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="K8" s="9" t="s">
         <v>38</v>
       </c>
+      <c r="L8" s="8">
+        <v>322</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="8">
+        <v>322</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="T8" s="6"/>
+      <c r="U8" s="8">
+        <v>322</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W8" s="8">
+        <v>322</v>
+      </c>
+      <c r="X8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y8" s="8">
+        <v>322</v>
+      </c>
+      <c r="Z8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA8" s="8">
+        <v>322</v>
+      </c>
+      <c r="AB8" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC8" s="8">
+        <v>322</v>
+      </c>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="8">
+        <v>322</v>
+      </c>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="8">
+        <v>322</v>
+      </c>
+      <c r="AH8" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="9" spans="3:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="1" t="s">
+    <row r="9" spans="3:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="8">
         <v>167</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="8">
         <v>167</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="K9" s="9" t="s">
         <v>39</v>
       </c>
+      <c r="L9" s="8">
+        <v>167</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="8">
+        <v>167</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T9" s="6"/>
+      <c r="U9" s="8">
+        <v>167</v>
+      </c>
+      <c r="V9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="W9" s="8">
+        <v>167</v>
+      </c>
+      <c r="X9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y9" s="8">
+        <v>167</v>
+      </c>
+      <c r="Z9" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA9" s="8">
+        <v>167</v>
+      </c>
+      <c r="AB9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC9" s="8">
+        <v>167</v>
+      </c>
+      <c r="AD9" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE9" s="8">
+        <v>167</v>
+      </c>
+      <c r="AF9" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG9" s="8">
+        <v>167</v>
+      </c>
+      <c r="AH9" s="6" t="s">
+        <v>129</v>
+      </c>
     </row>
-    <row r="10" spans="3:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="1" t="s">
+    <row r="10" spans="3:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="8">
         <v>186</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="8">
         <v>186</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="K10" s="9" t="s">
         <v>40</v>
       </c>
+      <c r="L10" s="8">
+        <v>186</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="8">
+        <v>186</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="T10" s="6"/>
+      <c r="U10" s="8">
+        <v>186</v>
+      </c>
+      <c r="V10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="W10" s="8">
+        <v>186</v>
+      </c>
+      <c r="X10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y10" s="8">
+        <v>186</v>
+      </c>
+      <c r="Z10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA10" s="8">
+        <v>186</v>
+      </c>
+      <c r="AB10" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC10" s="8">
+        <v>186</v>
+      </c>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="8">
+        <v>186</v>
+      </c>
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="8">
+        <v>186</v>
+      </c>
+      <c r="AH10" s="6" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="11" spans="3:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="1" t="s">
+    <row r="11" spans="3:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="8">
         <v>436</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="8">
         <v>436</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="K11" s="9" t="s">
         <v>41</v>
       </c>
+      <c r="L11" s="8">
+        <v>436</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="8">
+        <v>436</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="T11" s="6"/>
+      <c r="U11" s="8">
+        <v>436</v>
+      </c>
+      <c r="V11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="W11" s="8">
+        <v>436</v>
+      </c>
+      <c r="X11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y11" s="8">
+        <v>436</v>
+      </c>
+      <c r="Z11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA11" s="8">
+        <v>436</v>
+      </c>
+      <c r="AB11" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC11" s="8">
+        <v>436</v>
+      </c>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="8">
+        <v>436</v>
+      </c>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="8">
+        <v>436</v>
+      </c>
+      <c r="AH11" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="12" spans="3:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="1" t="s">
+    <row r="12" spans="3:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="8">
         <v>244</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="8">
         <v>244</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="K12" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="L12" s="8">
+        <v>244</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="8">
+        <v>244</v>
+      </c>
+      <c r="S12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="T12" s="6"/>
+      <c r="U12" s="8">
+        <v>244</v>
+      </c>
+      <c r="V12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="W12" s="8">
+        <v>244</v>
+      </c>
+      <c r="X12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y12" s="8">
+        <v>244</v>
+      </c>
+      <c r="Z12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA12" s="8">
+        <v>244</v>
+      </c>
+      <c r="AB12" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC12" s="8">
+        <v>244</v>
+      </c>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="8">
+        <v>244</v>
+      </c>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="8">
+        <v>244</v>
+      </c>
+      <c r="AH12" s="6" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="13" spans="3:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="1" t="s">
+    <row r="13" spans="3:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="F13" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="6"/>
+      <c r="L13" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="R13" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="T13" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="U13" s="13"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB13" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC13" s="12">
+        <v>870</v>
+      </c>
+      <c r="AD13" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF13" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
     </row>
-    <row r="14" spans="3:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="1" t="s">
+    <row r="14" spans="3:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z14" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB14" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC14" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD14" s="20"/>
+      <c r="AE14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF14" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH14" s="6"/>
     </row>
-    <row r="15" spans="3:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="1" t="s">
+    <row r="15" spans="3:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="12">
+        <v>752</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H15" s="12">
+        <v>706</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="12">
+        <v>456</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N15" s="12">
+        <v>524</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="P15" s="12">
+        <v>464</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="R15" s="12">
+        <v>588</v>
+      </c>
+      <c r="S15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="T15" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="U15" s="12">
+        <v>626</v>
+      </c>
+      <c r="V15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="W15" s="13"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="12">
+        <v>626</v>
+      </c>
+      <c r="Z15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA15" s="12">
+        <v>700</v>
+      </c>
+      <c r="AB15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC15" s="12">
+        <v>1014</v>
+      </c>
+      <c r="AD15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE15" s="12">
+        <v>756</v>
+      </c>
+      <c r="AF15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG15" s="12">
+        <v>838</v>
+      </c>
+      <c r="AH15" s="6" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="16" spans="3:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="1" t="s">
+    <row r="16" spans="3:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD16" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF16" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG16" s="6"/>
+      <c r="AH16" s="6"/>
     </row>
-    <row r="17" spans="3:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="1" t="s">
+    <row r="17" spans="3:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z17" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB17" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD17" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF17" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG17" s="6"/>
+      <c r="AH17" s="6"/>
     </row>
-    <row r="18" spans="3:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="1" t="s">
+    <row r="18" spans="3:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="11">
+        <v>286</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N18" s="11">
+        <v>286</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="P18" s="11">
+        <v>286</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="R18" s="11">
+        <v>286</v>
+      </c>
+      <c r="S18" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="T18" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="U18" s="11">
+        <v>286</v>
+      </c>
+      <c r="V18" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="W18" s="11">
+        <v>286</v>
+      </c>
+      <c r="X18" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y18" s="11">
+        <v>286</v>
+      </c>
+      <c r="Z18" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA18" s="12">
+        <v>330</v>
+      </c>
+      <c r="AB18" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC18" s="12">
+        <v>787</v>
+      </c>
+      <c r="AD18" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF18" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG18" s="11">
+        <v>286</v>
+      </c>
+      <c r="AH18" s="6" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="19" spans="3:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="1" t="s">
+    <row r="19" spans="3:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="7" t="s">
         <v>26</v>
       </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M19" s="6"/>
+      <c r="N19" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="O19" s="6"/>
+      <c r="P19" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z19" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA19" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB19" s="23"/>
+      <c r="AC19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD19" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF19" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG19" s="6"/>
+      <c r="AH19" s="6"/>
     </row>
-    <row r="20" spans="3:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="1" t="s">
+    <row r="20" spans="3:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="7" t="s">
         <v>27</v>
       </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z20" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB20" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD20" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF20" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG20" s="6"/>
+      <c r="AH20" s="6"/>
     </row>
-    <row r="21" spans="3:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="1" t="s">
+    <row r="21" spans="3:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="11">
+        <v>334</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="P21" s="11">
+        <v>334</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="R21" s="11">
+        <v>334</v>
+      </c>
+      <c r="S21" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="T21" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="U21" s="12">
+        <v>1672</v>
+      </c>
+      <c r="V21" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="W21" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z21" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB21" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC21" s="12">
+        <v>514</v>
+      </c>
+      <c r="AD21" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF21" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG21" s="12">
+        <v>730</v>
+      </c>
+      <c r="AH21" s="6" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C22" s="1" t="s">
+    <row r="22" spans="3:34" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="7" t="s">
         <v>29</v>
       </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M22" s="6"/>
+      <c r="N22" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z22" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA22" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB22" s="23"/>
+      <c r="AC22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF22" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG22" s="6"/>
+      <c r="AH22" s="6"/>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C23" s="1" t="s">
+    <row r="23" spans="3:34" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="7" t="s">
         <v>30</v>
       </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q23" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z23" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA23" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB23" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC23" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD23" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE23" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF23" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG23" s="6"/>
+      <c r="AH23" s="6"/>
+    </row>
+    <row r="25" spans="3:34" x14ac:dyDescent="0.35">
+      <c r="E25" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="19">
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AC14:AD14"/>
     <mergeCell ref="D2:E2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
     <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
